--- a/benchmark/绘图.xlsx
+++ b/benchmark/绘图.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6405" windowHeight="3630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
-    <sheet name="1c" sheetId="2" r:id="rId2"/>
-    <sheet name="2c" sheetId="3" r:id="rId3"/>
+    <sheet name="io" sheetId="2" r:id="rId2"/>
+    <sheet name="sort" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
   <si>
     <t>1c1g</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>VM</t>
-  </si>
-  <si>
-    <t>TestDFSIO读_Throughput(mb/sec)</t>
   </si>
   <si>
     <t>11.66</t>
@@ -297,10 +294,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cTeraSort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NNBench_TPS</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -333,10 +326,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>vTeraSort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NNBench_Map</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -384,6 +373,50 @@
   </si>
   <si>
     <t>cDFSIO_W_A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFSIO_W_T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vTeraSort_1c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cTeraSort_2c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vTeraSort_2c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDFSIO读_Throughput(mb/sec)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cTeraSort_1c</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -471,7 +504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -517,10 +550,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -533,6 +563,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,16 +617,24 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c'!$B$3</c:f>
+              <c:f>io!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vDFSIO_R_T</c:v>
+                  <c:v>vDFSIO_W_T</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
@@ -592,7 +642,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1c'!$C$2:$F$2</c:f>
+              <c:f>io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -612,21 +662,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c'!$C$3:$F$3</c:f>
+              <c:f>io!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00_);[Red]\(0.00\)">
-                  <c:v>11.66</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.26</c:v>
+                  <c:v>9.1300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.55</c:v>
+                  <c:v>10.220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.71</c:v>
+                  <c:v>12.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,16 +687,24 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c'!$B$4</c:f>
+              <c:f>io!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vDFSIO_R_A</c:v>
+                  <c:v>vDFSIO_W_A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
@@ -654,7 +712,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1c'!$C$2:$F$2</c:f>
+              <c:f>io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -674,21 +732,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c'!$C$4:$F$4</c:f>
+              <c:f>io!$C$8:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00_);[Red]\(0.00\)">
-                  <c:v>11.76</c:v>
+                <c:pt idx="0">
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.6</c:v>
+                  <c:v>9.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.61</c:v>
+                  <c:v>10.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.85</c:v>
+                  <c:v>12.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,16 +757,24 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c'!$B$5</c:f>
+              <c:f>io!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cDFSIO_R_T</c:v>
+                  <c:v>cDFSIO_W_T</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
@@ -716,7 +782,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1c'!$C$2:$F$2</c:f>
+              <c:f>io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -736,21 +802,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c'!$C$5:$F$5</c:f>
+              <c:f>io!$C$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151.53</c:v>
+                  <c:v>17.648</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181.72200000000001</c:v>
+                  <c:v>19.224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194.596</c:v>
+                  <c:v>20.472000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,16 +827,19 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c'!$B$6</c:f>
+              <c:f>io!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cDFSIO_R_A</c:v>
+                  <c:v>cDFSIO_W_A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
@@ -778,7 +847,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1c'!$C$2:$F$2</c:f>
+              <c:f>io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -798,21 +867,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c'!$C$6:$F$6</c:f>
+              <c:f>io!$C$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.255</c:v>
+                  <c:v>18.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>182.74</c:v>
+                  <c:v>19.341999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208.22200000000001</c:v>
+                  <c:v>21.036000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,11 +896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48907776"/>
-        <c:axId val="185344384"/>
+        <c:axId val="37061376"/>
+        <c:axId val="37062912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48907776"/>
+        <c:axId val="37061376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185344384"/>
+        <c:crossAx val="37062912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -848,22 +917,20 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185344384"/>
+        <c:axId val="37062912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="210"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48907776"/>
+        <c:crossAx val="37061376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="30"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -873,9 +940,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.78721869443738901"/>
-          <c:y val="0.34691718637930713"/>
-          <c:w val="0.18538208493114119"/>
-          <c:h val="0.30423398354521686"/>
+          <c:y val="0.23467044223767827"/>
+          <c:w val="0.1977435305311887"/>
+          <c:h val="0.49902130935758748"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -924,52 +991,134 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vDFSIO_W_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$G$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c'!$G$3:$J$3</c:f>
+              <c:f>io!$G$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16.68</c:v>
+                  <c:v>4.6500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272.48</c:v>
+                  <c:v>16.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>315.56</c:v>
+                  <c:v>18.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>326.02</c:v>
+                  <c:v>19.010000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vDFSIO_W_A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$G$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c'!$G$4:$J$4</c:f>
+              <c:f>io!$G$8:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.63</c:v>
+                  <c:v>5.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.07</c:v>
+                  <c:v>16.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>316.37</c:v>
+                  <c:v>18.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>329.69</c:v>
+                  <c:v>19.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,24 +1127,65 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cDFSIO_W_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$G$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c'!$G$5:$J$5</c:f>
+              <c:f>io!$G$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>440.32400000000001</c:v>
+                  <c:v>46.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>435.45400000000001</c:v>
+                  <c:v>45.475999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>359.29</c:v>
+                  <c:v>48.518000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,24 +1194,55 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cDFSIO_W_A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$G$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c'!$G$6:$J$6</c:f>
+              <c:f>io!$G$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>463.35199999999998</c:v>
+                  <c:v>47.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>443.55399999999997</c:v>
+                  <c:v>45.844000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362.50299999999999</c:v>
+                  <c:v>50.097999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,11 +1257,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190720640"/>
-        <c:axId val="190786944"/>
+        <c:axId val="130964480"/>
+        <c:axId val="130990464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190720640"/>
+        <c:axId val="130964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190786944"/>
+        <c:crossAx val="130990464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190786944"/>
+        <c:axId val="130990464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,14 +1289,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190720640"/>
+        <c:crossAx val="130964480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79193572666298317"/>
+          <c:y val="0.24350477466912382"/>
+          <c:w val="0.1809088141061278"/>
+          <c:h val="0.45625286200927012"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1090,66 +1320,1433 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vDFSIO_R_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>io!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>11.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vDFSIO_R_A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>io!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cDFSIO_R_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>io!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.72200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194.596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cDFSIO_R_A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>io!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.22200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="204179712"/>
+        <c:axId val="204197888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="204179712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204197888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204197888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204179712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80079648903357548"/>
+          <c:y val="0.20453863336824984"/>
+          <c:w val="0.18688134451625321"/>
+          <c:h val="0.54421902266173006"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vDFSIO_R_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$G$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>io!$G$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vDFSIO_R_A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$G$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>io!$G$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>272.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cDFSIO_R_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$G$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>io!$G$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>435.45400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>io!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cDFSIO_R_A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>io!$G$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>io!$G$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463.35199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>443.55399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>362.50299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="204498816"/>
+        <c:axId val="204500352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="204498816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204500352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204500352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204498816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.804060746120832"/>
+          <c:y val="0.23641257608756353"/>
+          <c:w val="0.18236152426372357"/>
+          <c:h val="0.51299045066175242"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sort!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vTeraSort_1c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>sort!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sort!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sort!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vTeraSort_2c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>sort!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sort!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sort!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cTeraSort_1c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>sort!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sort!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sort!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cTeraSort_2c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>sort!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sort!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="143208832"/>
+        <c:axId val="173198336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143208832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173198336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173198336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143208832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="图表 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="组合 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11058524" y="104774"/>
+          <a:ext cx="4676776" cy="3467101"/>
+          <a:chOff x="11058524" y="104774"/>
+          <a:chExt cx="4676776" cy="3467101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="13" name="图表 12"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="11058524" y="104774"/>
+          <a:ext cx="4676775" cy="1685926"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="14" name="图表 13"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="11058524" y="1781175"/>
+          <a:ext cx="4676776" cy="1790700"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11163300" y="3209925"/>
+            <a:ext cx="454163" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+              <a:t>mb/s</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="TextBox 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11153775" y="1438275"/>
+            <a:ext cx="454163" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+              <a:t>mb/s</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="图表 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="组合 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6372224" y="104774"/>
+          <a:ext cx="4676776" cy="3467101"/>
+          <a:chOff x="6372224" y="104774"/>
+          <a:chExt cx="4676776" cy="3467101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="10" name="图表 9"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="6372224" y="104774"/>
+          <a:ext cx="4676775" cy="1685926"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="11" name="图表 10"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="6372224" y="1781175"/>
+          <a:ext cx="4676776" cy="1790700"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="TextBox 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6524625" y="3219450"/>
+            <a:ext cx="454163" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+              <a:t>mb/s</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="TextBox 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6524625" y="1438275"/>
+            <a:ext cx="454163" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+              <a:t>mb/s</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4524375" y="304800"/>
+          <a:ext cx="3876675" cy="1895475"/>
+          <a:chOff x="4524375" y="304800"/>
+          <a:chExt cx="3876675" cy="1895475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="图表 2"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4524375" y="304800"/>
+          <a:ext cx="3876675" cy="1895475"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4714875" y="1857375"/>
+            <a:ext cx="454163" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+              <a:t>sec</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1446,7 +3043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1486,7 +3083,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>10</v>
@@ -1578,58 +3175,58 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="P3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -1637,58 +3234,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="P4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -1696,58 +3293,58 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="P5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -1755,58 +3352,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="P6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="S6" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -1814,13 +3411,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8">
         <v>51</v>
@@ -1832,7 +3429,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="8">
         <v>41</v>
@@ -1844,7 +3441,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="8">
         <v>73</v>
@@ -1856,7 +3453,7 @@
         <v>60</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="8">
         <v>55</v>
@@ -1873,10 +3470,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1884,15 +3481,15 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N8" s="8">
         <v>34128</v>
@@ -1901,7 +3498,7 @@
         <v>12201</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="8">
         <v>6285</v>
@@ -1918,10 +3515,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1932,7 +3529,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="8">
         <v>5472</v>
@@ -1944,7 +3541,7 @@
         <v>6176</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="8">
         <v>3232</v>
@@ -1961,10 +3558,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8">
@@ -1987,7 +3584,7 @@
         <v>29</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" s="8">
         <v>49.7</v>
@@ -2016,52 +3613,52 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="Q11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -2103,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2130,9 +3727,7 @@
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
         <v>0</v>
@@ -2161,535 +3756,479 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>87</v>
+      <c r="A3" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="16">
+        <v>99</v>
+      </c>
+      <c r="C3" s="15">
         <v>11.66</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>105.26</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>122.55</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>135.71</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>16.68</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>272.48</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>315.56</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>326.02</v>
       </c>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="16">
+        <v>104</v>
+      </c>
+      <c r="C4" s="15">
         <v>11.76</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>105.6</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>122.61</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>137.85</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>17.63</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>273.07</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>316.37</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>329.69</v>
       </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="16">
+        <v>103</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>151.53</v>
+      </c>
+      <c r="E5" s="15">
+        <v>181.72200000000001</v>
+      </c>
+      <c r="F5" s="15">
+        <v>194.596</v>
+      </c>
+      <c r="G5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="16">
-        <v>151.53</v>
-      </c>
-      <c r="E5" s="16">
-        <v>181.72200000000001</v>
-      </c>
-      <c r="F5" s="16">
-        <v>194.596</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>440.32400000000001</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>435.45400000000001</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>359.29</v>
       </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="16">
+        <v>106</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>159.255</v>
+      </c>
+      <c r="E6" s="15">
+        <v>182.74</v>
+      </c>
+      <c r="F6" s="15">
+        <v>208.22200000000001</v>
+      </c>
+      <c r="G6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
-        <v>159.255</v>
-      </c>
-      <c r="E6" s="16">
-        <v>182.74</v>
-      </c>
-      <c r="F6" s="16">
-        <v>208.22200000000001</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>463.35199999999998</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>443.55399999999997</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>362.50299999999999</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
-        <v>87</v>
+      <c r="A7" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="16">
+        <v>105</v>
+      </c>
+      <c r="C7" s="15">
         <v>1.3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>9.1300000000000008</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>10.220000000000001</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>12.41</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>16.43</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>18.23</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>19.010000000000002</v>
       </c>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="16">
+        <v>107</v>
+      </c>
+      <c r="C8" s="15">
         <v>2.66</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>9.1199999999999992</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>10.23</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>12.42</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>5.94</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>16.45</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>18.43</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>19.14</v>
       </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
+        <v>100</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
         <v>17.648</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>19.224</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>20.472000000000001</v>
       </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
         <v>46.81</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>45.475999999999999</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>48.518000000000001</v>
       </c>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
+        <v>108</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
         <v>18.739999999999998</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>19.341999999999999</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>21.036000000000001</v>
       </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
         <v>47.16</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>45.844000000000001</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>50.097999999999999</v>
       </c>
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="16">
-        <v>986</v>
-      </c>
-      <c r="D12" s="16">
-        <v>73</v>
-      </c>
-      <c r="E12" s="16">
-        <v>65</v>
-      </c>
-      <c r="F12" s="16">
-        <v>60</v>
-      </c>
-      <c r="G12" s="16">
-        <v>146</v>
-      </c>
-      <c r="H12" s="16">
-        <v>55</v>
-      </c>
-      <c r="I12" s="16">
-        <v>43</v>
-      </c>
-      <c r="J12" s="16">
-        <v>44</v>
-      </c>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16">
-        <v>51</v>
-      </c>
-      <c r="E13" s="16">
-        <v>46</v>
-      </c>
-      <c r="F13" s="16">
-        <v>46</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16">
-        <v>41</v>
-      </c>
-      <c r="I13" s="16">
-        <v>38</v>
-      </c>
-      <c r="J13" s="16">
-        <v>39</v>
-      </c>
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="16">
+        <v>95</v>
+      </c>
+      <c r="C14" s="15">
         <v>0</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>10696</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>34128</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>12201</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>6285</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>6318</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>6255</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="16">
+        <v>94</v>
+      </c>
+      <c r="C15" s="15">
         <v>0</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>5472</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>17194</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>6176</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>0</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>3232</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>3248</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>3183</v>
       </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16">
+        <v>89</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15">
         <v>0</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="16">
+        <v>93</v>
+      </c>
+      <c r="C18" s="15">
         <v>0</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>49.7</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>48.4</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>48.2</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>162</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>35</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <v>35</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>34</v>
       </c>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="16">
+        <v>72</v>
+      </c>
+      <c r="C19" s="15">
         <v>0</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>0</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>0</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>0</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>0</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>0</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>0</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>0</v>
       </c>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16">
+        <v>92</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
         <v>40.1</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>38.6</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>40.299999999999997</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15">
         <v>29</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>28</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>29</v>
       </c>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16">
+        <v>91</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
         <v>0</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>0</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15">
         <v>0</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <v>0</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>0</v>
       </c>
       <c r="L21" s="3"/>
@@ -2710,13 +4249,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="22"/>
+      <c r="C2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="15">
+        <v>200</v>
+      </c>
+      <c r="D3" s="15">
+        <v>73</v>
+      </c>
+      <c r="E3" s="15">
+        <v>65</v>
+      </c>
+      <c r="F3" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="15">
+        <v>146</v>
+      </c>
+      <c r="D4" s="15">
+        <v>55</v>
+      </c>
+      <c r="E4" s="15">
+        <v>43</v>
+      </c>
+      <c r="F4" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="15">
+        <v>200</v>
+      </c>
+      <c r="D5" s="15">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15">
+        <v>46</v>
+      </c>
+      <c r="F5" s="15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="15">
+        <v>120</v>
+      </c>
+      <c r="D6" s="15">
+        <v>41</v>
+      </c>
+      <c r="E6" s="15">
+        <v>38</v>
+      </c>
+      <c r="F6" s="15">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/benchmark/绘图.xlsx
+++ b/benchmark/绘图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6405" windowHeight="3630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -565,17 +565,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,11 +896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="37061376"/>
-        <c:axId val="37062912"/>
+        <c:axId val="203860608"/>
+        <c:axId val="203878784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37061376"/>
+        <c:axId val="203860608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37062912"/>
+        <c:crossAx val="203878784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -917,18 +917,52 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37062912"/>
+        <c:axId val="203878784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0"/>
+                  <a:t>核配置下写速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>mb/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37061376"/>
+        <c:crossAx val="203860608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1257,11 +1291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130964480"/>
-        <c:axId val="130990464"/>
+        <c:axId val="204433664"/>
+        <c:axId val="204443648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130964480"/>
+        <c:axId val="204433664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130990464"/>
+        <c:crossAx val="204443648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,18 +1312,52 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130990464"/>
+        <c:axId val="204443648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>核配置下写速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(mb/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130964480"/>
+        <c:crossAx val="204433664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1625,11 +1693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204179712"/>
-        <c:axId val="204197888"/>
+        <c:axId val="204347648"/>
+        <c:axId val="204361728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204179712"/>
+        <c:axId val="204347648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204197888"/>
+        <c:crossAx val="204361728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204197888"/>
+        <c:axId val="204361728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1654,11 +1722,92 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>核配置下</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>读</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>(mb/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="900">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204179712"/>
+        <c:crossAx val="204347648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -1988,11 +2137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204498816"/>
-        <c:axId val="204500352"/>
+        <c:axId val="204388224"/>
+        <c:axId val="204389760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204498816"/>
+        <c:axId val="204388224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204500352"/>
+        <c:crossAx val="204389760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2009,7 +2158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204500352"/>
+        <c:axId val="204389760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2017,11 +2166,95 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>核配置下读速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(mb/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204498816"/>
+        <c:crossAx val="204388224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2310,11 +2543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143208832"/>
-        <c:axId val="173198336"/>
+        <c:axId val="204481664"/>
+        <c:axId val="204483200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143208832"/>
+        <c:axId val="204481664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173198336"/>
+        <c:crossAx val="204483200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2331,7 +2564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173198336"/>
+        <c:axId val="204483200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2339,17 +2572,36 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="0"/>
+                  <a:t>时间消耗（秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143208832"/>
+        <c:crossAx val="204481664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -2370,7 +2622,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
@@ -2387,10 +2639,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11058524" y="104774"/>
-          <a:ext cx="4676776" cy="3467101"/>
-          <a:chOff x="11058524" y="104774"/>
-          <a:chExt cx="4676776" cy="3467101"/>
+          <a:off x="11029950" y="104774"/>
+          <a:ext cx="4705350" cy="3467101"/>
+          <a:chOff x="11029950" y="104774"/>
+          <a:chExt cx="4705350" cy="3467101"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -2425,13 +2677,13 @@
       </xdr:graphicFrame>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="TextBox 16"/>
+          <xdr:cNvPr id="18" name="TextBox 17"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11163300" y="3209925"/>
-            <a:ext cx="454163" cy="248851"/>
+            <a:off x="11029950" y="152400"/>
+            <a:ext cx="184731" cy="264560"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2458,53 +2710,6 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-              <a:t>mb/s</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="TextBox 17"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11153775" y="1438275"/>
-            <a:ext cx="454163" cy="248851"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-              <a:t>mb/s</a:t>
-            </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
@@ -2568,92 +2773,6 @@
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="TextBox 15"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6524625" y="3219450"/>
-            <a:ext cx="454163" cy="248851"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-              <a:t>mb/s</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="TextBox 18"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6524625" y="1438275"/>
-            <a:ext cx="454163" cy="248851"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-              <a:t>mb/s</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2670,83 +2789,26 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="组合 4"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4524375" y="304800"/>
-          <a:ext cx="3876675" cy="1895475"/>
-          <a:chOff x="4524375" y="304800"/>
-          <a:chExt cx="3876675" cy="1895475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="图表 2"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="4524375" y="304800"/>
-          <a:ext cx="3876675" cy="1895475"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4714875" y="1857375"/>
-            <a:ext cx="454163" cy="248851"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-              <a:t>sec</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3177,7 +3239,7 @@
       <c r="B3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3700,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3756,7 +3818,7 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -3789,7 +3851,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="14" t="s">
         <v>104</v>
       </c>
@@ -3820,7 +3882,7 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="14" t="s">
         <v>103</v>
       </c>
@@ -3851,7 +3913,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="14" t="s">
         <v>106</v>
       </c>
@@ -3882,7 +3944,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -3915,7 +3977,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="14" t="s">
         <v>107</v>
       </c>
@@ -3946,7 +4008,7 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
@@ -3977,7 +4039,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
@@ -4251,8 +4313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4261,15 +4323,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
         <v>113</v>
       </c>
@@ -4288,7 +4350,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="14" t="s">
         <v>110</v>
       </c>
@@ -4306,7 +4368,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="14" t="s">
         <v>112</v>
       </c>
@@ -4324,7 +4386,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="14" t="s">
         <v>119</v>
       </c>
@@ -4342,7 +4404,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="14" t="s">
         <v>111</v>
       </c>

--- a/benchmark/绘图.xlsx
+++ b/benchmark/绘图.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
-    <sheet name="io" sheetId="2" r:id="rId2"/>
-    <sheet name="sort" sheetId="3" r:id="rId3"/>
+    <sheet name="hadoop_io" sheetId="2" r:id="rId2"/>
+    <sheet name="hadoop_sort" sheetId="3" r:id="rId3"/>
+    <sheet name="spark" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>1c1g</t>
   </si>
@@ -418,6 +419,94 @@
   <si>
     <t>cTeraSort_1c</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.167</t>
+  </si>
+  <si>
+    <t>60.8955</t>
+  </si>
+  <si>
+    <t>64.505</t>
+  </si>
+  <si>
+    <t>57.0055</t>
+  </si>
+  <si>
+    <t>58.6025</t>
+  </si>
+  <si>
+    <t>56.7255</t>
+  </si>
+  <si>
+    <t>64.2255</t>
+  </si>
+  <si>
+    <t>60.33</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>568.5</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>617.5</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>569.5</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Duration(bytes/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparkWordcount_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Throughput(bytes/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparkWordcount_T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Throughput/node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparkWordcount_T_n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vSparkWordcount_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vSparkWordcount_T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vSparkWordcount_T_n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +666,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,7 +715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$7</c:f>
+              <c:f>hadoop_io!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -642,7 +740,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$C$2:$F$2</c:f>
+              <c:f>hadoop_io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -662,7 +760,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$C$7:$F$7</c:f>
+              <c:f>hadoop_io!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -687,7 +785,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$8</c:f>
+              <c:f>hadoop_io!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -712,7 +810,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$C$2:$F$2</c:f>
+              <c:f>hadoop_io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -732,7 +830,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$C$8:$F$8</c:f>
+              <c:f>hadoop_io!$C$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -757,7 +855,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$9</c:f>
+              <c:f>hadoop_io!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -782,7 +880,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$C$2:$F$2</c:f>
+              <c:f>hadoop_io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -802,7 +900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$C$9:$F$9</c:f>
+              <c:f>hadoop_io!$C$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -827,7 +925,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$10</c:f>
+              <c:f>hadoop_io!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -847,7 +945,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$C$2:$F$2</c:f>
+              <c:f>hadoop_io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -867,7 +965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$C$10:$F$10</c:f>
+              <c:f>hadoop_io!$C$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -896,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203860608"/>
-        <c:axId val="203878784"/>
+        <c:axId val="46542848"/>
+        <c:axId val="46544384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203860608"/>
+        <c:axId val="46542848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203878784"/>
+        <c:crossAx val="46544384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -917,7 +1015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203878784"/>
+        <c:axId val="46544384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203860608"/>
+        <c:crossAx val="46542848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1029,7 +1127,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$7</c:f>
+              <c:f>hadoop_io!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1051,7 +1149,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$G$2:$J$2</c:f>
+              <c:f>hadoop_io!$G$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1071,7 +1169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$G$7:$J$7</c:f>
+              <c:f>hadoop_io!$G$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1096,7 +1194,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$8</c:f>
+              <c:f>hadoop_io!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1118,7 +1216,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$G$2:$J$2</c:f>
+              <c:f>hadoop_io!$G$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1138,7 +1236,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$G$8:$J$8</c:f>
+              <c:f>hadoop_io!$G$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1163,7 +1261,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$9</c:f>
+              <c:f>hadoop_io!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1185,7 +1283,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$G$2:$J$2</c:f>
+              <c:f>hadoop_io!$G$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1205,7 +1303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$G$9:$J$9</c:f>
+              <c:f>hadoop_io!$G$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1230,7 +1328,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$10</c:f>
+              <c:f>hadoop_io!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1242,7 +1340,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$G$2:$J$2</c:f>
+              <c:f>hadoop_io!$G$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1262,7 +1360,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$G$10:$J$10</c:f>
+              <c:f>hadoop_io!$G$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1291,11 +1389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204433664"/>
-        <c:axId val="204443648"/>
+        <c:axId val="46587904"/>
+        <c:axId val="46589440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204433664"/>
+        <c:axId val="46587904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204443648"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1312,7 +1410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204443648"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +1455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204433664"/>
+        <c:crossAx val="46587904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1414,7 +1512,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$3</c:f>
+              <c:f>hadoop_io!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1439,7 +1537,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$C$2:$F$2</c:f>
+              <c:f>hadoop_io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1459,7 +1557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$C$3:$F$3</c:f>
+              <c:f>hadoop_io!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1484,7 +1582,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$4</c:f>
+              <c:f>hadoop_io!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1509,7 +1607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$C$2:$F$2</c:f>
+              <c:f>hadoop_io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1529,7 +1627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$C$4:$F$4</c:f>
+              <c:f>hadoop_io!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1554,7 +1652,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$5</c:f>
+              <c:f>hadoop_io!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1579,7 +1677,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$C$2:$F$2</c:f>
+              <c:f>hadoop_io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1599,7 +1697,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$C$5:$F$5</c:f>
+              <c:f>hadoop_io!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1624,7 +1722,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$6</c:f>
+              <c:f>hadoop_io!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1644,7 +1742,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$C$2:$F$2</c:f>
+              <c:f>hadoop_io!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1664,7 +1762,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$C$6:$F$6</c:f>
+              <c:f>hadoop_io!$C$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1693,11 +1791,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204347648"/>
-        <c:axId val="204361728"/>
+        <c:axId val="46768512"/>
+        <c:axId val="46770048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204347648"/>
+        <c:axId val="46768512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204361728"/>
+        <c:crossAx val="46770048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1714,7 +1812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204361728"/>
+        <c:axId val="46770048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1807,7 +1905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204347648"/>
+        <c:crossAx val="46768512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -1875,7 +1973,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$3</c:f>
+              <c:f>hadoop_io!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1897,7 +1995,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$G$2:$J$2</c:f>
+              <c:f>hadoop_io!$G$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1917,7 +2015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$G$4:$J$4</c:f>
+              <c:f>hadoop_io!$G$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1942,7 +2040,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$4</c:f>
+              <c:f>hadoop_io!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1964,7 +2062,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$G$2:$J$2</c:f>
+              <c:f>hadoop_io!$G$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1984,7 +2082,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$G$3:$J$3</c:f>
+              <c:f>hadoop_io!$G$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2009,7 +2107,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$5</c:f>
+              <c:f>hadoop_io!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2031,7 +2129,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$G$2:$J$2</c:f>
+              <c:f>hadoop_io!$G$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2051,7 +2149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$G$5:$J$5</c:f>
+              <c:f>hadoop_io!$G$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2076,7 +2174,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>io!$B$6</c:f>
+              <c:f>hadoop_io!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2088,7 +2186,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>io!$G$2:$J$2</c:f>
+              <c:f>hadoop_io!$G$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2108,7 +2206,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>io!$G$6:$J$6</c:f>
+              <c:f>hadoop_io!$G$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2137,11 +2235,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204388224"/>
-        <c:axId val="204389760"/>
+        <c:axId val="139741056"/>
+        <c:axId val="139742592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204388224"/>
+        <c:axId val="139741056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204389760"/>
+        <c:crossAx val="139742592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204389760"/>
+        <c:axId val="139742592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2254,7 +2352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204388224"/>
+        <c:crossAx val="139741056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2310,7 +2408,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>sort!$B$3</c:f>
+              <c:f>hadoop_sort!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2321,7 +2419,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>sort!$C$2:$F$2</c:f>
+              <c:f>hadoop_sort!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2341,7 +2439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sort!$C$3:$F$3</c:f>
+              <c:f>hadoop_sort!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2367,7 +2465,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>sort!$B$4</c:f>
+              <c:f>hadoop_sort!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2378,7 +2476,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>sort!$C$2:$F$2</c:f>
+              <c:f>hadoop_sort!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2398,7 +2496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sort!$C$4:$F$4</c:f>
+              <c:f>hadoop_sort!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2424,7 +2522,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>sort!$B$5</c:f>
+              <c:f>hadoop_sort!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2435,7 +2533,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>sort!$C$2:$F$2</c:f>
+              <c:f>hadoop_sort!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2455,7 +2553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sort!$C$5:$F$5</c:f>
+              <c:f>hadoop_sort!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2481,7 +2579,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>sort!$B$6</c:f>
+              <c:f>hadoop_sort!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2492,7 +2590,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>sort!$C$2:$F$2</c:f>
+              <c:f>hadoop_sort!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2512,7 +2610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sort!$C$6:$F$6</c:f>
+              <c:f>hadoop_sort!$C$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2543,11 +2641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204481664"/>
-        <c:axId val="204483200"/>
+        <c:axId val="141896320"/>
+        <c:axId val="141902208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204481664"/>
+        <c:axId val="141896320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204483200"/>
+        <c:crossAx val="141902208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2564,7 +2662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204483200"/>
+        <c:axId val="141902208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2595,7 +2693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204481664"/>
+        <c:crossAx val="141896320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2607,6 +2705,1567 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.895499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.504999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.005499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>568.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_T_n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>568.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="190638720"/>
+        <c:axId val="255037824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="190638720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255037824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255037824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>核配置下</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>读</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>(mb/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="900">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="190638720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80079648903357548"/>
+          <c:y val="0.20453863336824984"/>
+          <c:w val="0.19920351096642452"/>
+          <c:h val="0.40865316745812091"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$G$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>58.602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.725499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.225499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$G$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>617.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_T_n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$G$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>617.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="190866944"/>
+        <c:axId val="190868480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="190866944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="190868480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190868480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>核配置下读速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(mb/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="190866944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68729227142800942"/>
+          <c:y val="0.23641257608756353"/>
+          <c:w val="0.30184554487963505"/>
+          <c:h val="0.51299045066175242"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$C$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>66.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.895499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.504999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.005499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.725499999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.225499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$C$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>568.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>617.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>569.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_T_n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$C$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>568.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>617.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>569.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="262892928"/>
+        <c:axId val="263001216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="262892928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="263001216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="263001216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>核配置下读速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(mb/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262892928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7943217097862767"/>
+          <c:y val="0.30800095404215472"/>
+          <c:w val="0.20388637134643883"/>
+          <c:h val="0.49061899650125823"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$C$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>568.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>617.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>569.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>spark!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vSparkWordcount_T_n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>spark!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1c1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1c2g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1c3g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1c4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2c1g</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2c2g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2c3g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2c4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>spark!$C$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>568.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>617.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>569.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="268146944"/>
+        <c:axId val="268169216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="268146944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="268169216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="268169216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>核配置下读速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(mb/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="268146944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7943217097862767"/>
+          <c:y val="0.30800095404215472"/>
+          <c:w val="0.20567829021372327"/>
+          <c:h val="0.16181583674746314"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -2806,6 +4465,133 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3105,13 +4891,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="35.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
@@ -3723,8 +5509,116 @@
         <v>81</v>
       </c>
     </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T13"/>
+    </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="L14" s="7"/>
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B15" s="14"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C21"/>
@@ -3762,8 +5656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4314,7 +6208,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4432,4 +6326,151 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="25">
+        <v>66.167000000000002</v>
+      </c>
+      <c r="D2" s="25">
+        <v>60.895499999999998</v>
+      </c>
+      <c r="E2" s="25">
+        <v>64.504999999999995</v>
+      </c>
+      <c r="F2" s="25">
+        <v>57.005499999999998</v>
+      </c>
+      <c r="G2" s="25">
+        <v>58.602499999999999</v>
+      </c>
+      <c r="H2" s="25">
+        <v>56.725499999999997</v>
+      </c>
+      <c r="I2" s="25">
+        <v>64.225499999999997</v>
+      </c>
+      <c r="J2" s="25">
+        <v>60.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="25">
+        <v>555</v>
+      </c>
+      <c r="D3" s="25">
+        <v>600</v>
+      </c>
+      <c r="E3" s="25">
+        <v>568.5</v>
+      </c>
+      <c r="F3" s="25">
+        <v>641</v>
+      </c>
+      <c r="G3" s="25">
+        <v>617.5</v>
+      </c>
+      <c r="H3" s="25">
+        <v>647</v>
+      </c>
+      <c r="I3" s="25">
+        <v>569.5</v>
+      </c>
+      <c r="J3" s="25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
+      <c r="B4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="26">
+        <v>555</v>
+      </c>
+      <c r="D4" s="25">
+        <v>600</v>
+      </c>
+      <c r="E4" s="25">
+        <v>568.5</v>
+      </c>
+      <c r="F4" s="25">
+        <v>641</v>
+      </c>
+      <c r="G4" s="25">
+        <v>617.5</v>
+      </c>
+      <c r="H4" s="25">
+        <v>647</v>
+      </c>
+      <c r="I4" s="25">
+        <v>569.5</v>
+      </c>
+      <c r="J4" s="25">
+        <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/benchmark/绘图.xlsx
+++ b/benchmark/绘图.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
     <sheet name="hadoop_io" sheetId="2" r:id="rId2"/>
     <sheet name="hadoop_sort" sheetId="3" r:id="rId3"/>
     <sheet name="spark" sheetId="4" r:id="rId4"/>
+    <sheet name="k8s" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -660,6 +661,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,12 +675,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,11 +995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46542848"/>
-        <c:axId val="46544384"/>
+        <c:axId val="208456704"/>
+        <c:axId val="209003264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46542848"/>
+        <c:axId val="208456704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46544384"/>
+        <c:crossAx val="209003264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46544384"/>
+        <c:axId val="209003264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46542848"/>
+        <c:crossAx val="208456704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1389,11 +1390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46587904"/>
-        <c:axId val="46589440"/>
+        <c:axId val="209034240"/>
+        <c:axId val="209040128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46587904"/>
+        <c:axId val="209034240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46589440"/>
+        <c:crossAx val="209040128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1410,7 +1411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46589440"/>
+        <c:axId val="209040128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46587904"/>
+        <c:crossAx val="209034240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1791,11 +1792,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46768512"/>
-        <c:axId val="46770048"/>
+        <c:axId val="208952704"/>
+        <c:axId val="208962688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46768512"/>
+        <c:axId val="208952704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46770048"/>
+        <c:crossAx val="208962688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1812,7 +1813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46770048"/>
+        <c:axId val="208962688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1905,7 +1906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46768512"/>
+        <c:crossAx val="208952704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -2235,11 +2236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139741056"/>
-        <c:axId val="139742592"/>
+        <c:axId val="208989568"/>
+        <c:axId val="208991360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139741056"/>
+        <c:axId val="208989568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139742592"/>
+        <c:crossAx val="208991360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2256,7 +2257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139742592"/>
+        <c:axId val="208991360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2352,7 +2353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139741056"/>
+        <c:crossAx val="208989568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2641,11 +2642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141896320"/>
-        <c:axId val="141902208"/>
+        <c:axId val="209129856"/>
+        <c:axId val="209131392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141896320"/>
+        <c:axId val="209129856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141902208"/>
+        <c:crossAx val="209131392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2662,7 +2663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141902208"/>
+        <c:axId val="209131392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2686,21 +2687,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141896320"/>
+        <c:crossAx val="209129856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2955,11 +2954,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190638720"/>
-        <c:axId val="255037824"/>
+        <c:axId val="209068032"/>
+        <c:axId val="209069568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190638720"/>
+        <c:axId val="209068032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255037824"/>
+        <c:crossAx val="209069568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2976,7 +2975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255037824"/>
+        <c:axId val="209069568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190638720"/>
+        <c:crossAx val="209068032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3340,11 +3339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190866944"/>
-        <c:axId val="190868480"/>
+        <c:axId val="209083008"/>
+        <c:axId val="209113472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190866944"/>
+        <c:axId val="209083008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190868480"/>
+        <c:crossAx val="209113472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3361,7 +3360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190868480"/>
+        <c:axId val="209113472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +3455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190866944"/>
+        <c:crossAx val="209083008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3790,11 +3789,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="262892928"/>
-        <c:axId val="263001216"/>
+        <c:axId val="209676160"/>
+        <c:axId val="209677696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="262892928"/>
+        <c:axId val="209676160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3803,7 +3802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263001216"/>
+        <c:crossAx val="209677696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3811,7 +3810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263001216"/>
+        <c:axId val="209677696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3906,7 +3905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262892928"/>
+        <c:crossAx val="209676160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4129,11 +4128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="268146944"/>
-        <c:axId val="268169216"/>
+        <c:axId val="209703296"/>
+        <c:axId val="209704832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="268146944"/>
+        <c:axId val="209703296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,7 +4141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268169216"/>
+        <c:crossAx val="209704832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4150,7 +4149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268169216"/>
+        <c:axId val="209704832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268146944"/>
+        <c:crossAx val="209703296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5656,7 +5655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -5712,7 +5711,7 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -5745,7 +5744,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="14" t="s">
         <v>104</v>
       </c>
@@ -5776,7 +5775,7 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="14" t="s">
         <v>103</v>
       </c>
@@ -5807,7 +5806,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="14" t="s">
         <v>106</v>
       </c>
@@ -5838,7 +5837,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -5871,7 +5870,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="14" t="s">
         <v>107</v>
       </c>
@@ -5902,7 +5901,7 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
@@ -5933,7 +5932,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
@@ -6217,12 +6216,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="20"/>
@@ -6244,7 +6243,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="14" t="s">
         <v>110</v>
       </c>
@@ -6262,7 +6261,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="14" t="s">
         <v>112</v>
       </c>
@@ -6280,7 +6279,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="14" t="s">
         <v>119</v>
       </c>
@@ -6298,7 +6297,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="14" t="s">
         <v>111</v>
       </c>
@@ -6332,7 +6331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -6374,94 +6373,94 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="22">
         <v>66.167000000000002</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>60.895499999999998</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <v>64.504999999999995</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="22">
         <v>57.005499999999998</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="22">
         <v>58.602499999999999</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="22">
         <v>56.725499999999997</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="22">
         <v>64.225499999999997</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="22">
         <v>60.33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>555</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>600</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>568.5</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>641</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="22">
         <v>617.5</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="22">
         <v>647</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="22">
         <v>569.5</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="22">
         <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <v>555</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>600</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>568.5</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>641</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="22">
         <v>617.5</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>647</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="22">
         <v>569.5</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="22">
         <v>610</v>
       </c>
     </row>
@@ -6473,4 +6472,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/benchmark/绘图.xlsx
+++ b/benchmark/绘图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="157">
   <si>
     <t>1c1g</t>
   </si>
@@ -382,132 +382,176 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>cTeraSort_2c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vTeraSort_2c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDFSIO读_Throughput(mb/sec)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cTeraSort_1c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.167</t>
+  </si>
+  <si>
+    <t>60.8955</t>
+  </si>
+  <si>
+    <t>64.505</t>
+  </si>
+  <si>
+    <t>57.0055</t>
+  </si>
+  <si>
+    <t>58.6025</t>
+  </si>
+  <si>
+    <t>56.7255</t>
+  </si>
+  <si>
+    <t>64.2255</t>
+  </si>
+  <si>
+    <t>60.33</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>568.5</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>617.5</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>569.5</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Duration(bytes/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparkWordcount_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Throughput(bytes/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparkWordcount_T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Throughput/node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparkWordcount_T_n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vSparkWordcount_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vSparkWordcount_T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vSparkWordcount_T_n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dDFSIO_R_T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dDFSIO_R_A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fDFSIO_R_T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fDFSIO_R_A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dDFSIO_W_T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dDFSIO_W_A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fDFSIO_W_T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fDFSIO_W_A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>vTeraSort_1c</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cTeraSort_2c</t>
+    <t>W</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>vTeraSort_2c</t>
+    <t>R</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1g</t>
+    <t>(c-v)/v</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDFSIO读_Throughput(mb/sec)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cTeraSort_1c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.167</t>
-  </si>
-  <si>
-    <t>60.8955</t>
-  </si>
-  <si>
-    <t>64.505</t>
-  </si>
-  <si>
-    <t>57.0055</t>
-  </si>
-  <si>
-    <t>58.6025</t>
-  </si>
-  <si>
-    <t>56.7255</t>
-  </si>
-  <si>
-    <t>64.2255</t>
-  </si>
-  <si>
-    <t>60.33</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>568.5</t>
-  </si>
-  <si>
-    <t>641</t>
-  </si>
-  <si>
-    <t>617.5</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>569.5</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>ScalaSparkWordcount_Duration(bytes/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SparkWordcount_D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScalaSparkWordcount_Throughput(bytes/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SparkWordcount_T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScalaSparkWordcount_Throughput/node</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SparkWordcount_T_n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vSparkWordcount_D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vSparkWordcount_T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vSparkWordcount_T_n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScalaSparkWordcount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -594,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +720,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -906,7 +953,7 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.648</c:v>
@@ -995,11 +1042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208456704"/>
-        <c:axId val="209003264"/>
+        <c:axId val="212712832"/>
+        <c:axId val="212735104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208456704"/>
+        <c:axId val="212712832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209003264"/>
+        <c:crossAx val="212735104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209003264"/>
+        <c:axId val="212735104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208456704"/>
+        <c:crossAx val="212712832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,11 +1437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209034240"/>
-        <c:axId val="209040128"/>
+        <c:axId val="212753792"/>
+        <c:axId val="212767872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209034240"/>
+        <c:axId val="212753792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209040128"/>
+        <c:crossAx val="212767872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1411,7 +1458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209040128"/>
+        <c:axId val="212767872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209034240"/>
+        <c:crossAx val="212753792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1703,7 +1750,7 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>151.53</c:v>
@@ -1768,7 +1815,7 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>159.255</c:v>
@@ -1792,11 +1839,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208952704"/>
-        <c:axId val="208962688"/>
+        <c:axId val="213622784"/>
+        <c:axId val="213624320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208952704"/>
+        <c:axId val="213622784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +1852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208962688"/>
+        <c:crossAx val="213624320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1813,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208962688"/>
+        <c:axId val="213624320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1906,7 +1953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208952704"/>
+        <c:crossAx val="213622784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -2236,11 +2283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208989568"/>
-        <c:axId val="208991360"/>
+        <c:axId val="213643264"/>
+        <c:axId val="213644800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208989568"/>
+        <c:axId val="213643264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208991360"/>
+        <c:crossAx val="213644800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2257,7 +2304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208991360"/>
+        <c:axId val="213644800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2353,7 +2400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208989568"/>
+        <c:crossAx val="213643264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2642,11 +2689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209129856"/>
-        <c:axId val="209131392"/>
+        <c:axId val="212339328"/>
+        <c:axId val="213197184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209129856"/>
+        <c:axId val="212339328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209131392"/>
+        <c:crossAx val="213197184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2663,7 +2710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209131392"/>
+        <c:axId val="213197184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2687,19 +2734,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209129856"/>
+        <c:crossAx val="212339328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2954,11 +3003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209068032"/>
-        <c:axId val="209069568"/>
+        <c:axId val="212484480"/>
+        <c:axId val="212486016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209068032"/>
+        <c:axId val="212484480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +3016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209069568"/>
+        <c:crossAx val="212486016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2975,7 +3024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209069568"/>
+        <c:axId val="212486016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,14 +3109,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209068032"/>
+        <c:crossAx val="212484480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3339,11 +3387,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209083008"/>
-        <c:axId val="209113472"/>
+        <c:axId val="212499456"/>
+        <c:axId val="212521728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209083008"/>
+        <c:axId val="212499456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3352,7 +3400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209113472"/>
+        <c:crossAx val="212521728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3360,7 +3408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209113472"/>
+        <c:axId val="212521728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,14 +3496,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209083008"/>
+        <c:crossAx val="212499456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3789,11 +3836,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209676160"/>
-        <c:axId val="209677696"/>
+        <c:axId val="212588800"/>
+        <c:axId val="212590592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209676160"/>
+        <c:axId val="212588800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +3849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209677696"/>
+        <c:crossAx val="212590592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3810,7 +3857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209677696"/>
+        <c:axId val="212590592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3898,14 +3945,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209676160"/>
+        <c:crossAx val="212588800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4128,11 +4174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209703296"/>
-        <c:axId val="209704832"/>
+        <c:axId val="213226240"/>
+        <c:axId val="213227776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209703296"/>
+        <c:axId val="213226240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,7 +4187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209704832"/>
+        <c:crossAx val="213227776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4149,7 +4195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209704832"/>
+        <c:axId val="213227776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4237,14 +4283,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209703296"/>
+        <c:crossAx val="213226240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4279,15 +4324,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4297,7 +4342,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11029950" y="104774"/>
+          <a:off x="12172950" y="276224"/>
           <a:ext cx="4705350" cy="3467101"/>
           <a:chOff x="11029950" y="104774"/>
           <a:chExt cx="4705350" cy="3467101"/>
@@ -4377,15 +4422,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4395,7 +4440,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6372224" y="104774"/>
+          <a:off x="7515224" y="276224"/>
           <a:ext cx="4676776" cy="3467101"/>
           <a:chOff x="6372224" y="104774"/>
           <a:chExt cx="4676776" cy="3467101"/>
@@ -4441,16 +4486,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4890,7 +4935,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:S14"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5025,7 +5070,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>75</v>
@@ -5513,34 +5558,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="T12"/>
     </row>
@@ -5549,34 +5594,34 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="T13"/>
     </row>
@@ -5585,34 +5630,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="T14"/>
     </row>
@@ -5653,21 +5698,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
     <col min="4" max="6" width="8.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.75" style="3" customWidth="1"/>
     <col min="8" max="10" width="7.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3"/>
+    <col min="11" max="11" width="9.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5772,7 +5817,10 @@
       <c r="J4" s="16">
         <v>329.69</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9">
+        <f>SUM(C4:J4)</f>
+        <v>1314.58</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="24"/>
@@ -5780,7 +5828,7 @@
         <v>103</v>
       </c>
       <c r="C5" s="15">
-        <v>0</v>
+        <v>11.76</v>
       </c>
       <c r="D5" s="15">
         <v>151.53</v>
@@ -5811,7 +5859,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="15">
-        <v>0</v>
+        <v>11.76</v>
       </c>
       <c r="D6" s="15">
         <v>159.255</v>
@@ -5834,7 +5882,10 @@
       <c r="J6" s="15">
         <v>362.50299999999999</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <f>SUM(C6:J6)</f>
+        <v>1832.3859999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
@@ -5898,7 +5949,10 @@
       <c r="J8" s="15">
         <v>19.14</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9">
+        <f>SUM(C8:J8)</f>
+        <v>94.39</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
@@ -5906,7 +5960,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="15">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="D9" s="15">
         <v>17.648</v>
@@ -5960,13 +6014,98 @@
       <c r="J10" s="15">
         <v>50.097999999999999</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9">
+        <f>SUM(C10:J10)</f>
+        <v>202.21999999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="K11" s="9"/>
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="27">
+        <f>(C6-C4)/C4</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
+        <f t="shared" ref="D11:J11" si="0">(D6-D4)/D4</f>
+        <v>0.50809659090909098</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.4904167686159368</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.51049691693870158</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.94327850255246737</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69682498992932207</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.40201030439042884</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="0"/>
+        <v>9.952682823258209E-2</v>
+      </c>
+      <c r="K11" s="9">
+        <f>(K6-K4)/K4</f>
+        <v>0.39389462794200419</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="K12" s="9"/>
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="27">
+        <f>(C10-C8)/C8</f>
+        <v>-1</v>
+      </c>
+      <c r="D12" s="27">
+        <f t="shared" ref="D12:J12" si="1">(D10-D8)/D8</f>
+        <v>1.0548245614035088</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="1"/>
+        <v>0.89071358748778084</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="1"/>
+        <v>0.69371980676328515</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="1"/>
+        <v>1.866869300911854</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="1"/>
+        <v>1.4874660879001629</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="1"/>
+        <v>1.6174503657262276</v>
+      </c>
+      <c r="K12" s="9">
+        <f>(K10-K8)/K8</f>
+        <v>1.1423879648267821</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
@@ -5983,213 +6122,219 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>10696</v>
-      </c>
-      <c r="E14" s="15">
-        <v>34128</v>
-      </c>
-      <c r="F14" s="15">
-        <v>12201</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>6285</v>
-      </c>
-      <c r="I14" s="15">
-        <v>6318</v>
-      </c>
-      <c r="J14" s="15">
-        <v>6255</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
-      <c r="B15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>5472</v>
-      </c>
-      <c r="E15" s="15">
-        <v>17194</v>
-      </c>
-      <c r="F15" s="15">
-        <v>6176</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>3232</v>
-      </c>
-      <c r="I15" s="15">
-        <v>3248</v>
-      </c>
-      <c r="J15" s="15">
-        <v>3183</v>
-      </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
-      <c r="B16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
-      <c r="B17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" s="15">
         <v>0</v>
       </c>
       <c r="D18" s="15">
-        <v>49.7</v>
+        <v>10696</v>
       </c>
       <c r="E18" s="15">
-        <v>48.4</v>
+        <v>34128</v>
       </c>
       <c r="F18" s="15">
-        <v>48.2</v>
+        <v>12201</v>
       </c>
       <c r="G18" s="15">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="H18" s="15">
-        <v>35</v>
+        <v>6285</v>
       </c>
       <c r="I18" s="15">
-        <v>35</v>
+        <v>6318</v>
       </c>
       <c r="J18" s="15">
-        <v>34</v>
+        <v>6255</v>
       </c>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="14" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
       </c>
       <c r="D19" s="15">
-        <v>0</v>
+        <v>5472</v>
       </c>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>17194</v>
       </c>
       <c r="F19" s="15">
-        <v>0</v>
+        <v>6176</v>
       </c>
       <c r="G19" s="15">
         <v>0</v>
       </c>
       <c r="H19" s="15">
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="I19" s="15">
-        <v>0</v>
+        <v>3248</v>
       </c>
       <c r="J19" s="15">
-        <v>0</v>
+        <v>3183</v>
       </c>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15">
-        <v>40.1</v>
-      </c>
-      <c r="E20" s="15">
-        <v>38.6</v>
-      </c>
-      <c r="F20" s="15">
-        <v>40.299999999999997</v>
-      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15">
-        <v>29</v>
-      </c>
-      <c r="I20" s="15">
-        <v>28</v>
-      </c>
-      <c r="J20" s="15">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0</v>
-      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>49.7</v>
+      </c>
+      <c r="E22" s="15">
+        <v>48.4</v>
+      </c>
+      <c r="F22" s="15">
+        <v>48.2</v>
+      </c>
+      <c r="G22" s="15">
+        <v>162</v>
+      </c>
+      <c r="H22" s="15">
+        <v>35</v>
+      </c>
+      <c r="I22" s="15">
+        <v>35</v>
+      </c>
+      <c r="J22" s="15">
+        <v>34</v>
+      </c>
       <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15">
+        <v>40.1</v>
+      </c>
+      <c r="E24" s="15">
+        <v>38.6</v>
+      </c>
+      <c r="F24" s="15">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15">
+        <v>29</v>
+      </c>
+      <c r="I24" s="15">
+        <v>28</v>
+      </c>
+      <c r="J24" s="15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6198,16 +6343,17 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6217,7 +6363,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -6226,16 +6372,16 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12"/>
@@ -6245,7 +6391,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="24"/>
       <c r="B3" s="14" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C3" s="15">
         <v>200</v>
@@ -6263,7 +6409,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
       <c r="B4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="15">
         <v>146</v>
@@ -6276,12 +6422,16 @@
       </c>
       <c r="F4" s="15">
         <v>44</v>
+      </c>
+      <c r="G4" s="27">
+        <f>SUM(C3:F4)</f>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="24"/>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="15">
         <v>200</v>
@@ -6299,7 +6449,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="24"/>
       <c r="B6" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="15">
         <v>120</v>
@@ -6312,6 +6462,16 @@
       </c>
       <c r="F6" s="15">
         <v>39</v>
+      </c>
+      <c r="G6" s="27">
+        <f>SUM(C5:F6)</f>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <f>(G4-G6)/G4</f>
+        <v>0.15306122448979592</v>
       </c>
     </row>
   </sheetData>
@@ -6374,10 +6534,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="22">
         <v>66.167000000000002</v>
@@ -6407,7 +6567,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="22">
         <v>555</v>
@@ -6437,7 +6597,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="26"/>
       <c r="B4" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="23">
         <v>555</v>
@@ -6476,12 +6636,195 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>151.53</v>
+      </c>
+      <c r="E2" s="15">
+        <v>181.72200000000001</v>
+      </c>
+      <c r="F2" s="15">
+        <v>194.596</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15">
+        <v>440.32400000000001</v>
+      </c>
+      <c r="I2" s="15">
+        <v>435.45400000000001</v>
+      </c>
+      <c r="J2" s="15">
+        <v>359.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>159.255</v>
+      </c>
+      <c r="E3" s="15">
+        <v>182.74</v>
+      </c>
+      <c r="F3" s="15">
+        <v>208.22200000000001</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>463.35199999999998</v>
+      </c>
+      <c r="I3" s="15">
+        <v>443.55399999999997</v>
+      </c>
+      <c r="J3" s="15">
+        <v>362.50299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
+      <c r="B4" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17.648</v>
+      </c>
+      <c r="E6" s="15">
+        <v>19.224</v>
+      </c>
+      <c r="F6" s="15">
+        <v>20.472000000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>46.81</v>
+      </c>
+      <c r="I6" s="15">
+        <v>45.475999999999999</v>
+      </c>
+      <c r="J6" s="15">
+        <v>48.518000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="E7" s="15">
+        <v>19.341999999999999</v>
+      </c>
+      <c r="F7" s="15">
+        <v>21.036000000000001</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>47.16</v>
+      </c>
+      <c r="I7" s="15">
+        <v>45.844000000000001</v>
+      </c>
+      <c r="J7" s="15">
+        <v>50.097999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/benchmark/绘图.xlsx
+++ b/benchmark/绘图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -711,6 +711,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,9 +722,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,11 +1042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="212712832"/>
-        <c:axId val="212735104"/>
+        <c:axId val="218422656"/>
+        <c:axId val="218444928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212712832"/>
+        <c:axId val="218422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212735104"/>
+        <c:crossAx val="218444928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212735104"/>
+        <c:axId val="218444928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212712832"/>
+        <c:crossAx val="218422656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,11 +1437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="212753792"/>
-        <c:axId val="212767872"/>
+        <c:axId val="218471808"/>
+        <c:axId val="218481792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212753792"/>
+        <c:axId val="218471808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212767872"/>
+        <c:crossAx val="218481792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1458,7 +1458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212767872"/>
+        <c:axId val="218481792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212753792"/>
+        <c:crossAx val="218471808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,11 +1839,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213622784"/>
-        <c:axId val="213624320"/>
+        <c:axId val="219254784"/>
+        <c:axId val="219256320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213622784"/>
+        <c:axId val="219254784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213624320"/>
+        <c:crossAx val="219256320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213624320"/>
+        <c:axId val="219256320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1953,7 +1953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213622784"/>
+        <c:crossAx val="219254784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -2283,11 +2283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213643264"/>
-        <c:axId val="213644800"/>
+        <c:axId val="219279360"/>
+        <c:axId val="219280896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213643264"/>
+        <c:axId val="219279360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213644800"/>
+        <c:crossAx val="219280896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2304,7 +2304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213644800"/>
+        <c:axId val="219280896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2400,7 +2400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213643264"/>
+        <c:crossAx val="219279360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2689,11 +2689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212339328"/>
-        <c:axId val="213197184"/>
+        <c:axId val="216983808"/>
+        <c:axId val="218046464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212339328"/>
+        <c:axId val="216983808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213197184"/>
+        <c:crossAx val="218046464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2710,7 +2710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213197184"/>
+        <c:axId val="218046464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2741,7 +2741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212339328"/>
+        <c:crossAx val="216983808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3003,11 +3003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="212484480"/>
-        <c:axId val="212486016"/>
+        <c:axId val="219097344"/>
+        <c:axId val="219103232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212484480"/>
+        <c:axId val="219097344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,7 +3016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212486016"/>
+        <c:crossAx val="219103232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3024,7 +3024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212486016"/>
+        <c:axId val="219103232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212484480"/>
+        <c:crossAx val="219097344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3387,11 +3387,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="212499456"/>
-        <c:axId val="212521728"/>
+        <c:axId val="219149440"/>
+        <c:axId val="219150976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212499456"/>
+        <c:axId val="219149440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212521728"/>
+        <c:crossAx val="219150976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3408,7 +3408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212521728"/>
+        <c:axId val="219150976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +3502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212499456"/>
+        <c:crossAx val="219149440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3836,11 +3836,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="212588800"/>
-        <c:axId val="212590592"/>
+        <c:axId val="219050368"/>
+        <c:axId val="219051904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212588800"/>
+        <c:axId val="219050368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,7 +3849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212590592"/>
+        <c:crossAx val="219051904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3857,7 +3857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212590592"/>
+        <c:axId val="219051904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +3951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212588800"/>
+        <c:crossAx val="219050368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4174,11 +4174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213226240"/>
-        <c:axId val="213227776"/>
+        <c:axId val="219081344"/>
+        <c:axId val="219083136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213226240"/>
+        <c:axId val="219081344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213227776"/>
+        <c:crossAx val="219083136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4195,7 +4195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213227776"/>
+        <c:axId val="219083136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4289,7 +4289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213226240"/>
+        <c:crossAx val="219081344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5700,8 +5700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5756,7 +5756,7 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -5789,7 +5789,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="14" t="s">
         <v>104</v>
       </c>
@@ -5823,7 +5823,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="14" t="s">
         <v>103</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="14" t="s">
         <v>106</v>
       </c>
@@ -5888,7 +5888,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -5921,7 +5921,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="14" t="s">
         <v>107</v>
       </c>
@@ -5955,7 +5955,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
@@ -6026,35 +6026,35 @@
       <c r="B11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="24">
         <f>(C6-C4)/C4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="24">
         <f t="shared" ref="D11:J11" si="0">(D6-D4)/D4</f>
         <v>0.50809659090909098</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
         <v>0.4904167686159368</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>0.51049691693870158</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
         <v>-0.94327850255246737</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="24">
         <f t="shared" si="0"/>
         <v>0.69682498992932207</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="24">
         <f t="shared" si="0"/>
         <v>0.40201030439042884</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="24">
         <f t="shared" si="0"/>
         <v>9.952682823258209E-2</v>
       </c>
@@ -6070,35 +6070,35 @@
       <c r="B12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="24">
         <f>(C10-C8)/C8</f>
         <v>-1</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <f t="shared" ref="D12:J12" si="1">(D10-D8)/D8</f>
         <v>1.0548245614035088</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="24">
         <f t="shared" si="1"/>
         <v>0.89071358748778084</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="24">
         <f t="shared" si="1"/>
         <v>0.69371980676328515</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="24">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="24">
         <f t="shared" si="1"/>
         <v>1.866869300911854</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="24">
         <f t="shared" si="1"/>
         <v>1.4874660879001629</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="24">
         <f t="shared" si="1"/>
         <v>1.6174503657262276</v>
       </c>
@@ -6352,8 +6352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6362,12 +6362,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="20"/>
@@ -6389,7 +6389,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="14" t="s">
         <v>153</v>
       </c>
@@ -6407,7 +6407,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="14" t="s">
         <v>111</v>
       </c>
@@ -6423,13 +6423,13 @@
       <c r="F4" s="15">
         <v>44</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="24">
         <f>SUM(C3:F4)</f>
         <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="14" t="s">
         <v>118</v>
       </c>
@@ -6447,7 +6447,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="14" t="s">
         <v>110</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="F6" s="15">
         <v>39</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <f>SUM(C5:F6)</f>
         <v>581</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6565,7 +6565,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="14" t="s">
         <v>142</v>
       </c>
@@ -6595,7 +6595,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
@@ -6673,7 +6673,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6705,7 +6705,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="14" t="s">
         <v>146</v>
       </c>
@@ -6735,19 +6735,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -6779,7 +6779,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="14" t="s">
         <v>150</v>
       </c>
@@ -6809,13 +6809,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="14" t="s">
         <v>152</v>
       </c>

--- a/benchmark/绘图.xlsx
+++ b/benchmark/绘图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="3975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7875" windowHeight="4620" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="hadoop_sort" sheetId="3" r:id="rId3"/>
     <sheet name="spark" sheetId="4" r:id="rId4"/>
     <sheet name="k8s" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="175">
   <si>
     <t>1c1g</t>
   </si>
@@ -552,6 +554,107 @@
   <si>
     <t>(c-v)/v</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>各节点平均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用率</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各节点最高CPU使用率</t>
+  </si>
+  <si>
+    <t>各节点最低CPU使用率</t>
+  </si>
+  <si>
+    <t>各节点平均内存使用率</t>
+  </si>
+  <si>
+    <t>各节点中最高内存使用率</t>
+  </si>
+  <si>
+    <t>各节点中最低内存使用率</t>
+  </si>
+  <si>
+    <r>
+      <t>av</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e_cpu</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ave_mem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_cpu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_cpu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_mem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_mem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,7 +664,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +718,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -624,12 +753,84 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -638,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +915,42 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,11 +1279,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="218422656"/>
-        <c:axId val="218444928"/>
+        <c:axId val="195621248"/>
+        <c:axId val="195622784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218422656"/>
+        <c:axId val="195621248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218444928"/>
+        <c:crossAx val="195622784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218444928"/>
+        <c:axId val="195622784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,14 +1338,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218422656"/>
+        <c:crossAx val="195621248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1136,6 +1372,636 @@
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>default_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$C$25:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSP_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$D$25:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>default_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$E$25:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSP_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$F$25:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>default_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$G$25:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSP_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$H$25:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="197172224"/>
+        <c:axId val="197182208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="197172224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197182208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="197182208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>资源利用率</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197172224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1437,11 +2303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="218471808"/>
-        <c:axId val="218481792"/>
+        <c:axId val="196219264"/>
+        <c:axId val="196220800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218471808"/>
+        <c:axId val="196219264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218481792"/>
+        <c:crossAx val="196220800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1458,7 +2324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218481792"/>
+        <c:axId val="196220800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,14 +2362,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218471808"/>
+        <c:crossAx val="196219264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,11 +2704,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="219254784"/>
-        <c:axId val="219256320"/>
+        <c:axId val="196272896"/>
+        <c:axId val="196274432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219254784"/>
+        <c:axId val="196272896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +2717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219256320"/>
+        <c:crossAx val="196274432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +2725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219256320"/>
+        <c:axId val="196274432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1946,14 +2811,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219254784"/>
+        <c:crossAx val="196272896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -2283,11 +3147,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="219279360"/>
-        <c:axId val="219280896"/>
+        <c:axId val="196702976"/>
+        <c:axId val="196704512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219279360"/>
+        <c:axId val="196702976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +3160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219280896"/>
+        <c:crossAx val="196704512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2304,7 +3168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219280896"/>
+        <c:axId val="196704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2393,14 +3257,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219279360"/>
+        <c:crossAx val="196702976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2689,11 +3552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216983808"/>
-        <c:axId val="218046464"/>
+        <c:axId val="196007424"/>
+        <c:axId val="196008960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216983808"/>
+        <c:axId val="196007424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +3565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218046464"/>
+        <c:crossAx val="196008960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2710,7 +3573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218046464"/>
+        <c:axId val="196008960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2734,21 +3597,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216983808"/>
+        <c:crossAx val="196007424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3003,11 +3864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="219097344"/>
-        <c:axId val="219103232"/>
+        <c:axId val="196807296"/>
+        <c:axId val="196817280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219097344"/>
+        <c:axId val="196807296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,7 +3877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219103232"/>
+        <c:crossAx val="196817280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3024,7 +3885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219103232"/>
+        <c:axId val="196817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219097344"/>
+        <c:crossAx val="196807296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3387,11 +4248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="219149440"/>
-        <c:axId val="219150976"/>
+        <c:axId val="196851200"/>
+        <c:axId val="196852736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219149440"/>
+        <c:axId val="196851200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +4261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219150976"/>
+        <c:crossAx val="196852736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3408,7 +4269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219150976"/>
+        <c:axId val="196852736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +4363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219149440"/>
+        <c:crossAx val="196851200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3836,11 +4697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="219050368"/>
-        <c:axId val="219051904"/>
+        <c:axId val="196162304"/>
+        <c:axId val="196163840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219050368"/>
+        <c:axId val="196162304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,7 +4710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219051904"/>
+        <c:crossAx val="196163840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3857,7 +4718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219051904"/>
+        <c:axId val="196163840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +4812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219050368"/>
+        <c:crossAx val="196162304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4174,11 +5035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219081344"/>
-        <c:axId val="219083136"/>
+        <c:axId val="196209664"/>
+        <c:axId val="197133056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219081344"/>
+        <c:axId val="196209664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +5048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219083136"/>
+        <c:crossAx val="197133056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4195,7 +5056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219083136"/>
+        <c:axId val="197133056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4289,7 +5150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219081344"/>
+        <c:crossAx val="196209664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4644,6 +5505,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -5700,7 +6598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5756,7 +6654,7 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="37" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -5789,7 +6687,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="14" t="s">
         <v>104</v>
       </c>
@@ -5823,7 +6721,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="14" t="s">
         <v>103</v>
       </c>
@@ -5854,7 +6752,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="14" t="s">
         <v>106</v>
       </c>
@@ -5888,7 +6786,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="37" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -5921,7 +6819,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="14" t="s">
         <v>107</v>
       </c>
@@ -5955,7 +6853,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
@@ -5986,7 +6884,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
@@ -6362,12 +7260,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="20"/>
@@ -6389,7 +7287,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="14" t="s">
         <v>153</v>
       </c>
@@ -6407,7 +7305,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="14" t="s">
         <v>111</v>
       </c>
@@ -6429,7 +7327,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="14" t="s">
         <v>118</v>
       </c>
@@ -6447,7 +7345,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="14" t="s">
         <v>110</v>
       </c>
@@ -6533,7 +7431,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="39" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6565,7 +7463,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="14" t="s">
         <v>142</v>
       </c>
@@ -6595,7 +7493,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
@@ -6636,196 +7534,388 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37:R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="15">
+      <c r="D2" s="15">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="E2" s="15">
         <v>151.53</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="15">
         <v>181.72200000000001</v>
       </c>
-      <c r="F2" s="15">
+      <c r="G2" s="15">
         <v>194.596</v>
       </c>
-      <c r="G2" s="15">
+      <c r="H2" s="15">
         <v>1</v>
       </c>
-      <c r="H2" s="15">
+      <c r="I2" s="15">
         <v>440.32400000000001</v>
       </c>
-      <c r="I2" s="15">
+      <c r="J2" s="15">
         <v>435.45400000000001</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="15">
         <v>359.29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="37"/>
+      <c r="C3" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="15">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="E3" s="15">
         <v>159.255</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="15">
         <v>182.74</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="15">
         <v>208.22200000000001</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="15">
+      <c r="I3" s="15">
         <v>463.35199999999998</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="15">
         <v>443.55399999999997</v>
       </c>
-      <c r="J3" s="15">
+      <c r="K3" s="15">
         <v>362.50299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="37"/>
+      <c r="C4" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="37"/>
+      <c r="C5" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="15">
+      <c r="D6" s="15">
         <v>0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6" s="15">
         <v>17.648</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="15">
         <v>19.224</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
         <v>20.472000000000001</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="15">
+      <c r="I6" s="15">
         <v>46.81</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <v>45.475999999999999</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <v>48.518000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="37"/>
+      <c r="C7" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="15">
+      <c r="D7" s="15">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="E7" s="15">
         <v>18.739999999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F7" s="15">
         <v>19.341999999999999</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <v>21.036000000000001</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="15">
         <v>0</v>
       </c>
-      <c r="H7" s="15">
+      <c r="I7" s="15">
         <v>47.16</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="15">
         <v>45.844000000000001</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="15">
         <v>50.097999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="37"/>
+      <c r="C8" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="37"/>
+      <c r="C9" s="14" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="28">
+        <v>0.745</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="F26" s="29">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="G26" s="29">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H26" s="30">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="28">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F27" s="29">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G27" s="29">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H27" s="30">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="28">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F28" s="29">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G28" s="29">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H28" s="30">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E29" s="29">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G29" s="29">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H29" s="30">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="28">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E30" s="29">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F30" s="29">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G30" s="29">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="H30" s="30">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/benchmark/绘图.xlsx
+++ b/benchmark/绘图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7875" windowHeight="4620" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7875" windowHeight="4620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="hadoop_sort" sheetId="3" r:id="rId3"/>
     <sheet name="spark" sheetId="4" r:id="rId4"/>
     <sheet name="k8s" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="pso" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
   <si>
     <t>1c1g</t>
   </si>
@@ -554,30 +554,6 @@
   <si>
     <t>(c-v)/v</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSP_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSP_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSP_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -656,6 +632,194 @@
     <t>min_mem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SO</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SP</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hadoop</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低负荷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hadoop</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中负荷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hadoop</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高负荷</t>
+    </r>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>BQP</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>FSP</t>
+  </si>
+  <si>
+    <t>最多承载集群个数</t>
+  </si>
+  <si>
+    <r>
+      <t>平均读速率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mb/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平均写速率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(mb/s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hadoop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集群各项测试指标</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负荷类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法策略</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据排序平均用时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(s)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -664,7 +828,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,8 +903,51 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -753,27 +960,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -791,8 +983,111 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -804,21 +1099,81 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -827,7 +1182,22 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -839,7 +1209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,16 +1285,31 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,23 +1318,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,6 +1365,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,7 +1436,7 @@
           <c:spPr>
             <a:pattFill prst="pct50">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -1082,7 +1506,7 @@
           <c:spPr>
             <a:pattFill prst="ltVert">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -1152,7 +1576,7 @@
           <c:spPr>
             <a:pattFill prst="dkDnDiag">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -1221,7 +1645,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln w="28575">
               <a:noFill/>
@@ -1279,11 +1705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195621248"/>
-        <c:axId val="195622784"/>
+        <c:axId val="205660544"/>
+        <c:axId val="205662080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195621248"/>
+        <c:axId val="205660544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195622784"/>
+        <c:crossAx val="205662080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195622784"/>
+        <c:axId val="205662080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195621248"/>
+        <c:crossAx val="205660544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,7 +1825,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1407,7 +1833,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1415,21 +1841,11 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>default_1</c:v>
+                  <c:v>def</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct50">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1486,7 +1902,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1494,21 +1910,11 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FSP_1</c:v>
+                  <c:v>BQP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltVert">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1543,22 +1949,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.85299999999999998</c:v>
+                  <c:v>0.70099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89600000000000002</c:v>
+                  <c:v>0.76100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49199999999999999</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83199999999999996</c:v>
+                  <c:v>0.65900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89600000000000002</c:v>
+                  <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70899999999999996</c:v>
+                  <c:v>0.622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,21 +1979,11 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>default_2</c:v>
+                  <c:v>ESS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:pattFill prst="dkDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1622,22 +2018,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.99099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45300000000000001</c:v>
+                  <c:v>0.48899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51400000000000001</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70299999999999996</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57199999999999995</c:v>
+                  <c:v>0.69099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,21 +2048,11 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FSP_2</c:v>
+                  <c:v>FSP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltVert">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1701,180 +2087,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.80500000000000005</c:v>
+                  <c:v>0.85299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84199999999999997</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77500000000000002</c:v>
+                  <c:v>0.83199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85799999999999998</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72899999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>k8s!$G$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>default_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>k8s!$B$25:$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>ave_cpu</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>max_cpu</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>min_cpu</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ave_mem</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>max_mem</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>min_mem</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>k8s!$G$25:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.55200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55700000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>k8s!$H$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSP_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltVert">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>k8s!$B$25:$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>ave_cpu</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>max_cpu</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>min_cpu</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ave_mem</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>max_mem</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>min_mem</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>k8s!$H$25:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.73599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>0.70899999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,11 +2117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197172224"/>
-        <c:axId val="197182208"/>
+        <c:axId val="206329728"/>
+        <c:axId val="206331264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197172224"/>
+        <c:axId val="206329728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +2130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197182208"/>
+        <c:crossAx val="206331264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1910,9 +2138,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197182208"/>
+        <c:axId val="206331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1922,6 +2151,47 @@
             <c:rich>
               <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Hadoop</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>低负荷</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
               <a:p>
                 <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                   <a:lnSpc>
@@ -1993,7 +2263,949 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197172224"/>
+        <c:crossAx val="206329728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>def</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$G$25:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BQP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$H$25:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$I$25:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$J$25:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="206358400"/>
+        <c:axId val="206359936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="206358400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206359936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="206359936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Hadoop</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>中负荷</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>资源利用率</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206358400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>def</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$K$25:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BQP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$L$25:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$M$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$M$25:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k8s!$N$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>k8s!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ave_cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max_cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ave_mem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>max_mem</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k8s!$N$25:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="206423936"/>
+        <c:axId val="206425472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="206423936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206425472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="206425472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Hadoop</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>高负荷</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>资源利用率</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206423936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2053,7 +3265,7 @@
           <c:spPr>
             <a:pattFill prst="pct50">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -2120,7 +3332,7 @@
           <c:spPr>
             <a:pattFill prst="ltVert">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -2187,7 +3399,7 @@
           <c:spPr>
             <a:pattFill prst="dkDnDiag">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -2251,6 +3463,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2303,11 +3522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196219264"/>
-        <c:axId val="196220800"/>
+        <c:axId val="205709696"/>
+        <c:axId val="205711232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196219264"/>
+        <c:axId val="205709696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +3535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196220800"/>
+        <c:crossAx val="205711232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2324,7 +3543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196220800"/>
+        <c:axId val="205711232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,7 +3587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196219264"/>
+        <c:crossAx val="205709696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2437,7 +3656,7 @@
           <c:spPr>
             <a:pattFill prst="pct50">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -2507,7 +3726,7 @@
           <c:spPr>
             <a:pattFill prst="ltVert">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -2577,7 +3796,7 @@
           <c:spPr>
             <a:pattFill prst="dkDnDiag">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -2646,7 +3865,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln w="28575">
               <a:noFill/>
@@ -2704,11 +3925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196272896"/>
-        <c:axId val="196274432"/>
+        <c:axId val="206476032"/>
+        <c:axId val="206477568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196272896"/>
+        <c:axId val="206476032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +3938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196274432"/>
+        <c:crossAx val="206477568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2725,7 +3946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196274432"/>
+        <c:axId val="206477568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -2817,7 +4038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196272896"/>
+        <c:crossAx val="206476032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -2897,7 +4118,10 @@
           <c:spPr>
             <a:pattFill prst="pct50">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -2964,7 +4188,7 @@
           <c:spPr>
             <a:pattFill prst="ltVert">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -3031,7 +4255,7 @@
           <c:spPr>
             <a:pattFill prst="dkDnDiag">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -3095,6 +4319,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -3147,11 +4378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196702976"/>
-        <c:axId val="196704512"/>
+        <c:axId val="206525184"/>
+        <c:axId val="206526720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196702976"/>
+        <c:axId val="206525184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +4391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196704512"/>
+        <c:crossAx val="206526720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3168,7 +4399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196704512"/>
+        <c:axId val="206526720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -3263,7 +4494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196702976"/>
+        <c:crossAx val="206525184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3552,11 +4783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196007424"/>
-        <c:axId val="196008960"/>
+        <c:axId val="205290880"/>
+        <c:axId val="205419648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196007424"/>
+        <c:axId val="205290880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3565,7 +4796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196008960"/>
+        <c:crossAx val="205419648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3573,7 +4804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196008960"/>
+        <c:axId val="205419648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3603,7 +4834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196007424"/>
+        <c:crossAx val="205290880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3864,11 +5095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196807296"/>
-        <c:axId val="196817280"/>
+        <c:axId val="205491200"/>
+        <c:axId val="205501184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196807296"/>
+        <c:axId val="205491200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3877,7 +5108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196817280"/>
+        <c:crossAx val="205501184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3885,7 +5116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196817280"/>
+        <c:axId val="205501184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,7 +5207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196807296"/>
+        <c:crossAx val="205491200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4248,11 +5479,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196851200"/>
-        <c:axId val="196852736"/>
+        <c:axId val="205529088"/>
+        <c:axId val="205530624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196851200"/>
+        <c:axId val="205529088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4261,7 +5492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196852736"/>
+        <c:crossAx val="205530624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4269,7 +5500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196852736"/>
+        <c:axId val="205530624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,7 +5594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196851200"/>
+        <c:crossAx val="205529088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4697,11 +5928,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196162304"/>
-        <c:axId val="196163840"/>
+        <c:axId val="205556736"/>
+        <c:axId val="205558528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196162304"/>
+        <c:axId val="205556736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4710,7 +5941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196163840"/>
+        <c:crossAx val="205558528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4718,7 +5949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196163840"/>
+        <c:axId val="205558528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4812,7 +6043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196162304"/>
+        <c:crossAx val="205556736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5035,11 +6266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196209664"/>
-        <c:axId val="197133056"/>
+        <c:axId val="206243328"/>
+        <c:axId val="206244864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196209664"/>
+        <c:axId val="206243328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +6279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197133056"/>
+        <c:crossAx val="206244864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5056,7 +6287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197133056"/>
+        <c:axId val="206244864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5150,7 +6381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196209664"/>
+        <c:crossAx val="206243328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5509,15 +6740,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5534,6 +6765,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5833,7 +7128,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6599,7 +7894,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6654,7 +7949,7 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="49" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -6687,7 +7982,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="14" t="s">
         <v>104</v>
       </c>
@@ -6721,7 +8016,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>103</v>
       </c>
@@ -6752,7 +8047,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="14" t="s">
         <v>106</v>
       </c>
@@ -6786,7 +8081,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="49" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -6819,7 +8114,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="14" t="s">
         <v>107</v>
       </c>
@@ -6853,7 +8148,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
@@ -6884,7 +8179,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
@@ -7260,12 +8555,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="20"/>
@@ -7287,7 +8582,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="14" t="s">
         <v>153</v>
       </c>
@@ -7305,7 +8600,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="14" t="s">
         <v>111</v>
       </c>
@@ -7327,7 +8622,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>118</v>
       </c>
@@ -7345,7 +8640,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="14" t="s">
         <v>110</v>
       </c>
@@ -7389,8 +8684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7431,7 +8726,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="51" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -7463,7 +8758,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="14" t="s">
         <v>142</v>
       </c>
@@ -7493,7 +8788,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
@@ -7534,44 +8829,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37:R44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="49" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -7580,72 +8882,80 @@
       <c r="D2" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
         <v>151.53</v>
       </c>
-      <c r="F2" s="15">
+      <c r="H2" s="15">
         <v>181.72200000000001</v>
       </c>
-      <c r="G2" s="15">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15">
         <v>194.596</v>
       </c>
-      <c r="H2" s="15">
+      <c r="L2" s="15">
         <v>1</v>
       </c>
-      <c r="I2" s="15">
+      <c r="M2" s="15">
         <v>440.32400000000001</v>
       </c>
-      <c r="J2" s="15">
+      <c r="N2" s="15">
         <v>435.45400000000001</v>
       </c>
-      <c r="K2" s="15">
+      <c r="O2" s="15">
         <v>359.29</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="37"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="49"/>
       <c r="C3" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
         <v>159.255</v>
       </c>
-      <c r="F3" s="15">
+      <c r="H3" s="15">
         <v>182.74</v>
       </c>
-      <c r="G3" s="15">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15">
         <v>208.22200000000001</v>
       </c>
-      <c r="H3" s="15">
+      <c r="L3" s="15">
         <v>1</v>
       </c>
-      <c r="I3" s="15">
+      <c r="M3" s="15">
         <v>463.35199999999998</v>
       </c>
-      <c r="J3" s="15">
+      <c r="N3" s="15">
         <v>443.55399999999997</v>
       </c>
-      <c r="K3" s="15">
+      <c r="O3" s="15">
         <v>362.50299999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="37"/>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="49"/>
       <c r="C4" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="37"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="49"/>
       <c r="C5" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -7654,251 +8964,407 @@
       <c r="D6" s="15">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
         <v>17.648</v>
       </c>
-      <c r="F6" s="15">
+      <c r="H6" s="15">
         <v>19.224</v>
       </c>
-      <c r="G6" s="15">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15">
         <v>20.472000000000001</v>
       </c>
-      <c r="H6" s="15">
+      <c r="L6" s="15">
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="M6" s="15">
         <v>46.81</v>
       </c>
-      <c r="J6" s="15">
+      <c r="N6" s="15">
         <v>45.475999999999999</v>
       </c>
-      <c r="K6" s="15">
+      <c r="O6" s="15">
         <v>48.518000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="37"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="49"/>
       <c r="C7" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
         <v>18.739999999999998</v>
       </c>
-      <c r="F7" s="15">
+      <c r="H7" s="15">
         <v>19.341999999999999</v>
       </c>
-      <c r="G7" s="15">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15">
         <v>21.036000000000001</v>
       </c>
-      <c r="H7" s="15">
+      <c r="L7" s="15">
         <v>0</v>
       </c>
-      <c r="I7" s="15">
+      <c r="M7" s="15">
         <v>47.16</v>
       </c>
-      <c r="J7" s="15">
+      <c r="N7" s="15">
         <v>45.844000000000001</v>
       </c>
-      <c r="K7" s="15">
+      <c r="O7" s="15">
         <v>50.097999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="37"/>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="49"/>
       <c r="C8" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="37"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B9" s="49"/>
       <c r="C9" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="33" t="s">
+    <row r="23" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="B25" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="41">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="D25" s="42">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="G25" s="41">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H25" s="45">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="I25" s="43">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J25" s="44">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K25" s="41">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="L25" s="45">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="M25" s="45">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="N25" s="44">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="B26" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="34">
+        <v>0.745</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G26" s="34">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H26" s="33">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="I26" s="28">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J26" s="35">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="K26" s="34">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="M26" s="33">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="N26" s="35">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="B27" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="E27" s="28">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H27" s="33">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I27" s="28">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J27" s="35">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K27" s="34">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="M27" s="33">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="N27" s="35">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="B28" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="F28" s="35">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G28" s="34">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0.502</v>
+      </c>
+      <c r="I28" s="28">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="J28" s="35">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K28" s="34">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="L28" s="33">
+        <v>0.49</v>
+      </c>
+      <c r="M28" s="33">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="N28" s="35">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="B29" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="34">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="H29" s="33">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J29" s="35">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="K29" s="34">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="L29" s="33">
+        <v>0.621</v>
+      </c>
+      <c r="M29" s="33">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="N29" s="35">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="D25" s="26">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="E25" s="26">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="F25" s="26">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="G25" s="26">
+      <c r="B30" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D30" s="37">
+        <v>0.622</v>
+      </c>
+      <c r="E30" s="38">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="H30" s="40">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="I30" s="38">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="J30" s="39">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="K30" s="36">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L30" s="40">
         <v>0.55200000000000005</v>
       </c>
-      <c r="H25" s="27">
-        <v>0.73599999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="28">
-        <v>0.745</v>
-      </c>
-      <c r="D26" s="29">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E26" s="29">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="F26" s="29">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="G26" s="29">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="H26" s="30">
-        <v>0.78800000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="28">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="E27" s="29">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="F27" s="29">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="G27" s="29">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="H27" s="30">
-        <v>0.40799999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="28">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="D28" s="29">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="E28" s="29">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="F28" s="29">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="G28" s="29">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="H28" s="30">
-        <v>0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="28">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="D29" s="29">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E29" s="29">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="F29" s="29">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="G29" s="29">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="H29" s="30">
-        <v>0.80900000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="28">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="D30" s="29">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E30" s="29">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="G30" s="29">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="H30" s="30">
+      <c r="M30" s="40">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N30" s="39">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7909,13 +9375,502 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6" ht="35.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="30">
+        <v>9</v>
+      </c>
+      <c r="D3" s="30">
+        <v>377.8</v>
+      </c>
+      <c r="E3" s="30">
+        <v>14.1</v>
+      </c>
+      <c r="F3" s="30">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="30">
+        <v>9</v>
+      </c>
+      <c r="D4" s="30">
+        <v>375.3</v>
+      </c>
+      <c r="E4" s="30">
+        <v>14.6</v>
+      </c>
+      <c r="F4" s="30">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="57"/>
+      <c r="B5" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="30">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30">
+        <v>374.2</v>
+      </c>
+      <c r="E5" s="30">
+        <v>13.9</v>
+      </c>
+      <c r="F5" s="30">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="57"/>
+      <c r="B6" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="30">
+        <v>12</v>
+      </c>
+      <c r="D6" s="30">
+        <v>374.5</v>
+      </c>
+      <c r="E6" s="30">
+        <v>14</v>
+      </c>
+      <c r="F6" s="30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="30">
+        <v>4</v>
+      </c>
+      <c r="D7" s="30">
+        <v>440.7</v>
+      </c>
+      <c r="E7" s="30">
+        <v>18.7</v>
+      </c>
+      <c r="F7" s="30">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="57"/>
+      <c r="B8" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="30">
+        <v>4</v>
+      </c>
+      <c r="D8" s="30">
+        <v>438.1</v>
+      </c>
+      <c r="E8" s="30">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F8" s="30">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="57"/>
+      <c r="B9" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="30">
+        <v>3</v>
+      </c>
+      <c r="D9" s="30">
+        <v>422.9</v>
+      </c>
+      <c r="E9" s="30">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F9" s="30">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="57"/>
+      <c r="B10" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="30">
+        <v>5</v>
+      </c>
+      <c r="D10" s="30">
+        <v>440.9</v>
+      </c>
+      <c r="E10" s="30">
+        <v>18.2</v>
+      </c>
+      <c r="F10" s="30">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="30">
+        <v>3</v>
+      </c>
+      <c r="D11" s="30">
+        <v>466.3</v>
+      </c>
+      <c r="E11" s="30">
+        <v>25.8</v>
+      </c>
+      <c r="F11" s="30">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="30">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30">
+        <v>459.9</v>
+      </c>
+      <c r="E12" s="30">
+        <v>24.9</v>
+      </c>
+      <c r="F12" s="30">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="57"/>
+      <c r="B13" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2</v>
+      </c>
+      <c r="D13" s="30">
+        <v>440.1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>22.9</v>
+      </c>
+      <c r="F13" s="30">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="57"/>
+      <c r="B14" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="30">
+        <v>4</v>
+      </c>
+      <c r="D14" s="30">
+        <v>460.7</v>
+      </c>
+      <c r="E14" s="30">
+        <v>24.9</v>
+      </c>
+      <c r="F14" s="30">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:V6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27">
+        <v>5</v>
+      </c>
+      <c r="D4" s="27">
+        <v>10</v>
+      </c>
+      <c r="E4" s="27">
+        <v>15</v>
+      </c>
+      <c r="F4" s="27">
+        <v>20</v>
+      </c>
+      <c r="G4" s="27">
+        <v>25</v>
+      </c>
+      <c r="H4" s="27">
+        <v>30</v>
+      </c>
+      <c r="I4" s="27">
+        <v>35</v>
+      </c>
+      <c r="J4" s="27">
+        <v>40</v>
+      </c>
+      <c r="K4" s="27">
+        <v>45</v>
+      </c>
+      <c r="L4" s="27">
+        <v>50</v>
+      </c>
+      <c r="M4" s="27">
+        <v>55</v>
+      </c>
+      <c r="N4" s="27">
+        <v>60</v>
+      </c>
+      <c r="O4" s="27">
+        <v>65</v>
+      </c>
+      <c r="P4" s="27">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>75</v>
+      </c>
+      <c r="R4" s="27">
+        <v>80</v>
+      </c>
+      <c r="S4" s="27">
+        <v>85</v>
+      </c>
+      <c r="T4" s="27">
+        <v>90</v>
+      </c>
+      <c r="U4" s="27">
+        <v>95</v>
+      </c>
+      <c r="V4" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>6022</v>
+      </c>
+      <c r="D5">
+        <v>8200</v>
+      </c>
+      <c r="E5">
+        <v>8742</v>
+      </c>
+      <c r="F5">
+        <v>9121</v>
+      </c>
+      <c r="G5">
+        <v>9623</v>
+      </c>
+      <c r="H5">
+        <v>10323</v>
+      </c>
+      <c r="I5">
+        <v>10832</v>
+      </c>
+      <c r="J5">
+        <v>11332</v>
+      </c>
+      <c r="K5">
+        <v>11834</v>
+      </c>
+      <c r="L5">
+        <v>12535</v>
+      </c>
+      <c r="M5">
+        <v>13002</v>
+      </c>
+      <c r="N5">
+        <v>13547</v>
+      </c>
+      <c r="O5">
+        <v>14218</v>
+      </c>
+      <c r="P5">
+        <v>14738</v>
+      </c>
+      <c r="Q5">
+        <v>15122</v>
+      </c>
+      <c r="R5">
+        <v>15314</v>
+      </c>
+      <c r="S5">
+        <v>15292</v>
+      </c>
+      <c r="T5">
+        <v>15214</v>
+      </c>
+      <c r="U5">
+        <v>15353</v>
+      </c>
+      <c r="V5">
+        <v>15294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0</v>
+      </c>
+      <c r="C6" s="27">
+        <v>6124</v>
+      </c>
+      <c r="D6">
+        <v>8251</v>
+      </c>
+      <c r="E6">
+        <v>8799</v>
+      </c>
+      <c r="F6">
+        <v>9242</v>
+      </c>
+      <c r="G6">
+        <v>9698</v>
+      </c>
+      <c r="H6">
+        <v>10423</v>
+      </c>
+      <c r="I6">
+        <v>11302</v>
+      </c>
+      <c r="J6">
+        <v>11334</v>
+      </c>
+      <c r="K6">
+        <v>11244</v>
+      </c>
+      <c r="L6">
+        <v>11319</v>
+      </c>
+      <c r="M6">
+        <v>11232</v>
+      </c>
+      <c r="N6">
+        <v>11133</v>
+      </c>
+      <c r="O6">
+        <v>11473</v>
+      </c>
+      <c r="P6">
+        <v>11356</v>
+      </c>
+      <c r="Q6">
+        <v>11532</v>
+      </c>
+      <c r="R6">
+        <v>11422</v>
+      </c>
+      <c r="S6">
+        <v>11324</v>
+      </c>
+      <c r="T6">
+        <v>11383</v>
+      </c>
+      <c r="U6">
+        <v>11236</v>
+      </c>
+      <c r="V6">
+        <v>11246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>